--- a/biology/Zoologie/Aposématisme/Aposématisme.xlsx
+++ b/biology/Zoologie/Aposématisme/Aposématisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apos%C3%A9matisme</t>
+          <t>Aposématisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aposématisme est la capacité qu'ont certaines espèces (généralement des animaux, parfois des plantes) d'émettre un signal d'avertissement clairement perceptible par de potentiels prédateurs. Ce signal peut être visuel (le plus souvent une couleur), sonore ou olfactif (émission de molécules sémiochimiques répulsives). Un tel signal de défense contre les prédateurs avertit ces derniers d'un danger qu'ils doivent éviter : substances toxiques, spinescence, etc.[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aposématisme est la capacité qu'ont certaines espèces (généralement des animaux, parfois des plantes) d'émettre un signal d'avertissement clairement perceptible par de potentiels prédateurs. Ce signal peut être visuel (le plus souvent une couleur), sonore ou olfactif (émission de molécules sémiochimiques répulsives). Un tel signal de défense contre les prédateurs avertit ces derniers d'un danger qu'ils doivent éviter : substances toxiques, spinescence, etc.,. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apos%C3%A9matisme</t>
+          <t>Aposématisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme aposématisme vient du grec ancien : ἀπό / apó, « repousser », et σῆμα / sêma, « signal ».
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apos%C3%A9matisme</t>
+          <t>Aposématisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alfred Russel Wallace, en réponse à un courrier de Charles Darwin en 1866, est le premier à avoir suggéré que l'aposématisme pouvait être un mécanisme évolutif. Darwin pensait que les couleurs voyantes pouvaient s'expliquer dans le cadre de la sélection sexuelle, mais que cela ne pouvait pas expliquer les couleurs voyantes de quelques espèces de chenilles, non sexuellement actives.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apos%C3%A9matisme</t>
+          <t>Aposématisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Mécanisme de défense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On suppose que le signal aposématique constitue un moyen de défense et qu'il avertit les prédateurs que ces animaux qui ne cherchent pas à se cacher représentent pour eux un danger (émission de sémiochimiques répulsifs, de substances toxiques, férocité) et qu'ils doivent donc les éviter. Cette stratégie est ainsi à l'avantage à la fois du prédateur et de la proie. Cependant, un certain nombre d'espèces inoffensives ont profité de ce moyen de défense en imitant les signaux d'espèces aposématiques.
-Si son efficacité est établie, l'aposématisme n'évite pas systématiquement la prédation. Ainsi, des oiseaux comme des merles peuvent contourner cette défense chimique en avalant très rapidement les punaises avant qu’elles aient le temps de projeter leur jet âcre et toxique. Certaines espèces d'oiseaux très proches, comme les mésanges, n'y touchent pas du tout, tandis que d'autres en consomment un peu[4].
+Si son efficacité est établie, l'aposématisme n'évite pas systématiquement la prédation. Ainsi, des oiseaux comme des merles peuvent contourner cette défense chimique en avalant très rapidement les punaises avant qu’elles aient le temps de projeter leur jet âcre et toxique. Certaines espèces d'oiseaux très proches, comme les mésanges, n'y touchent pas du tout, tandis que d'autres en consomment un peu.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apos%C3%A9matisme</t>
+          <t>Aposématisme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Mimétisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les biologistes de l'évolution distinguent deux cas dans le cadre du mimétisme : le mimétisme batésien et le mimétisme mullérien. 
 Dans le premier, l'imitateur est comestible ou non protégé mais copie un animal aposémate et se trouve ainsi protégé. Ce mimétisme batésien revient à l'acquisition d'un signal pseudaposématique. 
-Dans le second cas, l'imitateur est non comestible ou protégé et copie un animal aposémate grâce à un signal lui-même aposématique. Ce mimétisme mullérien est dit alors synaposématique. Le synaposématisme renforcerait sa protection[5].
+Dans le second cas, l'imitateur est non comestible ou protégé et copie un animal aposémate grâce à un signal lui-même aposématique. Ce mimétisme mullérien est dit alors synaposématique. Le synaposématisme renforcerait sa protection.
 Exemple d'espèce utilisant le mimétisme chez les papillons : le Vice-roi mime le Monarque.
 </t>
         </is>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apos%C3%A9matisme</t>
+          <t>Aposématisme</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,9 +661,11 @@
           <t>Épisématisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le signal épisématique (du préfixe grec epí qui a une valeur augmentative) entraîne au contraire un rôle attractif, « soit pour favoriser le rapprochement des sexes par exemple chez les oiseaux et les poissons, dont les mâles ont des livrées aux couleurs vives en période de reproduction (coloration 'épigamique'), soit chez des prédateurs ou des parasites, qui simulent ainsi un partenaire sexuel ou une proie (coloration épisématique)[6] ». 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signal épisématique (du préfixe grec epí qui a une valeur augmentative) entraîne au contraire un rôle attractif, « soit pour favoriser le rapprochement des sexes par exemple chez les oiseaux et les poissons, dont les mâles ont des livrées aux couleurs vives en période de reproduction (coloration 'épigamique'), soit chez des prédateurs ou des parasites, qui simulent ainsi un partenaire sexuel ou une proie (coloration épisématique) ». 
 </t>
         </is>
       </c>
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apos%C3%A9matisme</t>
+          <t>Aposématisme</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +694,9 @@
           <t>Exemples d'espèces aposématiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Voici quelques exemples d'animaux possiblement aposématiques :
 le papillon monarque (Danaus plexippus)
